--- a/Documenti/Matrice tracciabilità.xlsx
+++ b/Documenti/Matrice tracciabilità.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Desktop\UniSa\Lezioni Materiali\Anno 3 - I Semestre\Ingegneria del Software\Team-HILO\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76C0FA-8403-42BE-BA4A-07CC8A87C0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA50897-9207-494B-9492-D0EE71262457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,6 +465,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -476,13 +483,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC691F7D-EA22-4690-91E1-64ECB4528B45}" name="Tabella1" displayName="Tabella1" ref="A3:L14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" headerRowCellStyle="Colore 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC691F7D-EA22-4690-91E1-64ECB4528B45}" name="Tabella1" displayName="Tabella1" ref="A3:L14" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0" headerRowCellStyle="Colore 5">
   <autoFilter ref="A3:L14" xr:uid="{256C45A5-9341-4652-A266-7F6B798FBF87}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{2DCC675E-F8BD-45F3-AC00-FE1A244D3841}" name="ID"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,8 +798,8 @@
     <col min="6" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1127,7 +1127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
